--- a/data/n2v/tables/model-1200-1325-20230828-11.xlsx
+++ b/data/n2v/tables/model-1200-1325-20230828-11.xlsx
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
